--- a/data/outputs/OR/39.xlsx
+++ b/data/outputs/OR/39.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ48"/>
+  <dimension ref="A1:BR48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>12859856</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1354,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1552,6 +1564,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1761,6 +1774,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1970,6 +1984,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2179,6 +2194,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2388,6 +2404,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2589,6 +2606,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2798,6 +2816,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3011,6 +3030,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3212,6 +3232,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3298,7 +3319,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Rong, Ying/0000-0003-3360-1868; </t>
+          <t>Rong, Ying/0000-0003-3360-1868;</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3429,6 +3450,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3638,6 +3660,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3847,6 +3870,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4060,6 +4084,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4273,6 +4298,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4482,6 +4508,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4699,6 +4726,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4908,6 +4936,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5117,6 +5146,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5334,6 +5364,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5551,6 +5582,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5760,6 +5792,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5965,6 +5998,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4159381</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6051,7 +6089,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Song, Yongjia/0000-0001-6839-522X; </t>
+          <t>Song, Yongjia/0000-0001-6839-522X;</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr"/>
@@ -6174,6 +6212,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6383,6 +6422,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6588,6 +6628,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6797,6 +6838,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7014,6 +7056,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7215,6 +7258,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7416,6 +7460,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7621,6 +7666,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7830,6 +7876,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8039,6 +8086,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8244,6 +8292,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8445,6 +8494,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8650,6 +8700,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8859,6 +8910,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9060,6 +9112,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9269,6 +9322,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9482,6 +9536,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9691,6 +9746,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9912,6 +9968,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10097,6 +10154,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10302,6 +10360,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10511,6 +10570,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
